--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cams" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>1S</t>
   </si>
@@ -96,21 +96,12 @@
     <t>9S</t>
   </si>
   <si>
-    <t>10S</t>
-  </si>
-  <si>
     <t>SD ID</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>9O</t>
   </si>
   <si>
-    <t>10O</t>
-  </si>
-  <si>
     <t>Transect 1</t>
   </si>
   <si>
@@ -156,7 +147,25 @@
     <t>Cover type</t>
   </si>
   <si>
-    <t>Pendant ID</t>
+    <t>Pendant ID inside</t>
+  </si>
+  <si>
+    <t>Pendant ID outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Time on field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7S </t>
+  </si>
+  <si>
+    <t>soil moisture (%)</t>
+  </si>
+  <si>
+    <t>Site</t>
   </si>
 </sst>
 </file>
@@ -200,9 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,11 +531,13 @@
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -545,7 +558,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>22</v>
@@ -554,10 +567,10 @@
         <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
@@ -571,85 +584,491 @@
       <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>35.119790000000002</v>
+      </c>
+      <c r="C2">
+        <v>-119.62829000000001</v>
+      </c>
+      <c r="D2">
+        <v>271</v>
+      </c>
+      <c r="E2">
+        <v>241</v>
+      </c>
+      <c r="F2">
+        <v>125</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>20619210</v>
+      </c>
+      <c r="J2">
+        <v>20535201</v>
+      </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>32.9</v>
+      </c>
+      <c r="M2">
+        <v>35.119810000000001</v>
+      </c>
+      <c r="N2">
+        <v>-119.62833000000001</v>
+      </c>
+      <c r="O2">
+        <v>20564077</v>
+      </c>
+      <c r="P2">
+        <v>20619200</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43602</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>35.119840000000003</v>
+      </c>
+      <c r="C3">
+        <v>-119.62851999999999</v>
+      </c>
+      <c r="D3">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>143</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>32.9</v>
+      </c>
+      <c r="I3">
+        <v>20619218</v>
+      </c>
+      <c r="J3">
+        <v>2058911</v>
+      </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>42.6</v>
+      </c>
+      <c r="M3">
+        <v>35.11985</v>
+      </c>
+      <c r="N3">
+        <v>-119.62857</v>
+      </c>
+      <c r="O3">
+        <v>20619217</v>
+      </c>
+      <c r="P3">
+        <v>20619216</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>35.11994</v>
+      </c>
+      <c r="C4">
+        <v>-119.62838000000001</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>170</v>
+      </c>
+      <c r="F4">
+        <v>127</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I4">
+        <v>20619202</v>
+      </c>
+      <c r="J4">
+        <v>20500307</v>
+      </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>31.6</v>
+      </c>
+      <c r="M4">
+        <v>35.119979999999998</v>
+      </c>
+      <c r="N4">
+        <v>-119.62835</v>
+      </c>
+      <c r="O4">
+        <v>20619224</v>
+      </c>
+      <c r="P4">
+        <v>20535200</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>35.119289999999999</v>
+      </c>
+      <c r="C5">
+        <v>-119.62833999999999</v>
+      </c>
+      <c r="D5">
+        <v>295</v>
+      </c>
+      <c r="E5">
+        <v>255</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>30.9</v>
+      </c>
+      <c r="I5">
+        <v>20619198</v>
+      </c>
+      <c r="J5">
+        <v>20500302</v>
+      </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>12.1</v>
+      </c>
+      <c r="M5">
+        <v>35.119289999999999</v>
+      </c>
+      <c r="N5">
+        <v>-119.62829000000001</v>
+      </c>
+      <c r="O5">
+        <v>20619208</v>
+      </c>
+      <c r="P5">
+        <v>20567066</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>35.1188</v>
+      </c>
+      <c r="C6">
+        <v>-119.62924</v>
+      </c>
+      <c r="D6">
+        <v>269</v>
+      </c>
+      <c r="E6">
+        <v>164</v>
+      </c>
+      <c r="F6">
+        <v>112</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>30.2</v>
+      </c>
+      <c r="I6">
+        <v>20619205</v>
+      </c>
+      <c r="J6">
+        <v>20619204</v>
+      </c>
       <c r="K6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>35.118780000000001</v>
+      </c>
+      <c r="N6">
+        <v>-119.62918000000001</v>
+      </c>
+      <c r="O6">
+        <v>20567069</v>
+      </c>
+      <c r="P6">
+        <v>20567068</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>35.161740000000002</v>
+      </c>
+      <c r="C7">
+        <v>-119.67198</v>
+      </c>
+      <c r="D7">
+        <v>280</v>
+      </c>
+      <c r="E7">
+        <v>173</v>
+      </c>
+      <c r="F7">
+        <v>117</v>
+      </c>
+      <c r="H7">
+        <v>30.2</v>
+      </c>
+      <c r="I7">
+        <v>20548641</v>
+      </c>
+      <c r="J7">
+        <v>20619212</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>12.1</v>
+      </c>
+      <c r="M7">
+        <v>35.161769999999997</v>
+      </c>
+      <c r="N7">
+        <v>-119.672</v>
+      </c>
+      <c r="O7">
+        <v>20619201</v>
+      </c>
+      <c r="P7">
+        <v>20619221</v>
+      </c>
+      <c r="R7" s="2">
+        <v>43603</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>35.161709999999999</v>
+      </c>
+      <c r="C8">
+        <v>-119.67188</v>
+      </c>
+      <c r="D8">
+        <v>204</v>
+      </c>
+      <c r="E8">
+        <v>203</v>
+      </c>
+      <c r="F8">
+        <v>149</v>
+      </c>
+      <c r="H8">
+        <v>36.1</v>
+      </c>
+      <c r="I8">
+        <v>20535242</v>
+      </c>
+      <c r="J8">
+        <v>20535241</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>15.8</v>
+      </c>
+      <c r="M8">
+        <v>35.161709999999999</v>
+      </c>
+      <c r="N8">
+        <v>-119.61839999999999</v>
+      </c>
+      <c r="O8">
+        <v>20500324</v>
+      </c>
+      <c r="P8">
+        <v>20535195</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9">
+        <v>35.162329999999997</v>
+      </c>
+      <c r="C9">
+        <v>-119.67295</v>
+      </c>
+      <c r="D9">
+        <v>243</v>
+      </c>
+      <c r="E9">
+        <v>217</v>
+      </c>
+      <c r="F9">
+        <v>147</v>
+      </c>
+      <c r="H9">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I9">
+        <v>20567065</v>
+      </c>
+      <c r="J9">
+        <v>20619220</v>
+      </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M9">
+        <v>35.163359999999997</v>
+      </c>
+      <c r="N9">
+        <v>-119.67404000000001</v>
+      </c>
+      <c r="O9">
+        <v>20535247</v>
+      </c>
+      <c r="P9">
+        <v>20619225</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
+      <c r="B10">
+        <v>35.163310000000003</v>
+      </c>
+      <c r="C10">
+        <v>-119.67406</v>
+      </c>
+      <c r="D10">
+        <v>358</v>
+      </c>
+      <c r="E10">
+        <v>251</v>
+      </c>
+      <c r="F10">
+        <v>133</v>
+      </c>
+      <c r="H10">
+        <v>45.8</v>
+      </c>
+      <c r="I10">
+        <v>20619206</v>
+      </c>
+      <c r="J10">
+        <v>20597546</v>
+      </c>
       <c r="K10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>25.7</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>-119</v>
+      </c>
+      <c r="O10">
+        <v>20564173</v>
+      </c>
+      <c r="P10">
+        <v>20567067</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -673,22 +1092,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,27 +1217,27 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -828,9 +1247,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -838,28 +1257,33 @@
   <cols>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cams" sheetId="1" r:id="rId1"/>
-    <sheet name="transect" sheetId="2" r:id="rId2"/>
-    <sheet name="shelters" sheetId="3" r:id="rId3"/>
+    <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
+    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId2"/>
+    <sheet name="transect" sheetId="2" r:id="rId3"/>
+    <sheet name="shelters" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>1S</t>
   </si>
@@ -81,9 +82,6 @@
     <t>burrows</t>
   </si>
   <si>
-    <t>soil moisture (% organic)</t>
-  </si>
-  <si>
     <t xml:space="preserve">soil pendant </t>
   </si>
   <si>
@@ -166,6 +164,27 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>soil moisture outiside (% organic V)</t>
+  </si>
+  <si>
+    <t>soil moisture inside (% organic V)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1pm </t>
   </si>
 </sst>
 </file>
@@ -209,11 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -558,19 +578,19 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
@@ -579,19 +599,19 @@
         <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -884,6 +904,9 @@
       <c r="F7">
         <v>117</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>30.2</v>
       </c>
@@ -923,7 +946,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>35.161709999999999</v>
@@ -939,6 +962,9 @@
       </c>
       <c r="F8">
         <v>149</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>36.1</v>
@@ -990,6 +1016,9 @@
       <c r="F9">
         <v>147</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>35.700000000000003</v>
       </c>
@@ -1023,7 +1052,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>35.163310000000003</v>
@@ -1040,6 +1069,9 @@
       <c r="F10">
         <v>133</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10">
         <v>45.8</v>
       </c>
@@ -1050,7 +1082,7 @@
         <v>20597546</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10">
         <v>25.7</v>
@@ -1077,6 +1109,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -1092,22 +1198,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,27 +1323,27 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1245,12 +1351,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,32 +1365,397 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36.693629999999999</v>
+      </c>
+      <c r="C2">
+        <v>-120.79318000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>20578912</v>
+      </c>
+      <c r="G2">
+        <v>1156629</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>29.4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43605</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>36.693640000000002</v>
+      </c>
+      <c r="C3">
+        <v>-120.79331000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F3">
+        <v>20567073</v>
+      </c>
+      <c r="G3">
+        <v>10715217</v>
+      </c>
+      <c r="H3">
+        <v>31.8</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>36.693550000000002</v>
+      </c>
+      <c r="C4">
+        <v>-120.79315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>20597545</v>
+      </c>
+      <c r="G4">
+        <v>20535198</v>
+      </c>
+      <c r="H4">
+        <v>26.7</v>
+      </c>
+      <c r="I4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>36.693489999999997</v>
+      </c>
+      <c r="C5">
+        <v>-120.7932</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>20471784</v>
+      </c>
+      <c r="G5">
+        <v>20597548</v>
+      </c>
+      <c r="H5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I5">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>36.693489999999997</v>
+      </c>
+      <c r="C6">
+        <v>-120.79311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>20619223</v>
+      </c>
+      <c r="G6">
+        <v>1071522</v>
+      </c>
+      <c r="H6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I6">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36.393419999999999</v>
+      </c>
+      <c r="C7">
+        <v>-120.79311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>1174235</v>
+      </c>
+      <c r="G7">
+        <v>1071524</v>
+      </c>
+      <c r="H7">
+        <v>28.8</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>36.693939999999998</v>
+      </c>
+      <c r="C8">
+        <v>-120.79300000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F8">
+        <v>20619222</v>
+      </c>
+      <c r="G8">
+        <v>10795215</v>
+      </c>
+      <c r="H8">
+        <v>23.9</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>36.69397</v>
+      </c>
+      <c r="C9">
+        <v>-120.79292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>205677071</v>
+      </c>
+      <c r="G9">
+        <v>20619214</v>
+      </c>
+      <c r="H9">
+        <v>23.8</v>
+      </c>
+      <c r="I9">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>36.694009999999999</v>
+      </c>
+      <c r="C10">
+        <v>-120.79282000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>20567074</v>
+      </c>
+      <c r="G10">
+        <v>1156637</v>
+      </c>
+      <c r="H10">
+        <v>29.4</v>
+      </c>
+      <c r="I10">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>36.694000000000003</v>
+      </c>
+      <c r="C11">
+        <v>-120.79295</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>20619211</v>
+      </c>
+      <c r="G11">
+        <v>20619207</v>
+      </c>
+      <c r="H11">
+        <v>31.4</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>36.694049999999997</v>
+      </c>
+      <c r="C12">
+        <v>-120.79304999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>20619213</v>
+      </c>
+      <c r="G12">
+        <v>20619219</v>
+      </c>
+      <c r="H12">
+        <v>27.2</v>
+      </c>
+      <c r="I12">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>36.69408</v>
+      </c>
+      <c r="C13">
+        <v>-120.9301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>2058913</v>
+      </c>
+      <c r="G13">
+        <v>20564078</v>
+      </c>
+      <c r="H13">
+        <v>25.5</v>
+      </c>
+      <c r="I13">
+        <v>31.1</v>
       </c>
     </row>
   </sheetData>

--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
-    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId2"/>
-    <sheet name="transect" sheetId="2" r:id="rId3"/>
-    <sheet name="shelters" sheetId="3" r:id="rId4"/>
+    <sheet name="cams-CarrizoWeek2" sheetId="5" r:id="rId2"/>
+    <sheet name="cams-CarizoWeek3" sheetId="6" r:id="rId3"/>
+    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId4"/>
+    <sheet name="transect" sheetId="2" r:id="rId5"/>
+    <sheet name="shelters" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
   <si>
     <t>1S</t>
   </si>
@@ -154,9 +156,6 @@
     <t xml:space="preserve">Date </t>
   </si>
   <si>
-    <t>Time on field</t>
-  </si>
-  <si>
     <t xml:space="preserve">7S </t>
   </si>
   <si>
@@ -185,13 +184,25 @@
   </si>
   <si>
     <t xml:space="preserve">1pm </t>
+  </si>
+  <si>
+    <t>Open ID</t>
+  </si>
+  <si>
+    <t>Time started</t>
+  </si>
+  <si>
+    <t>around 3 pm</t>
+  </si>
+  <si>
+    <t>20119-05-23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +214,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,12 +246,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +560,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
@@ -587,10 +606,10 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
@@ -608,10 +627,10 @@
         <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -946,7 +965,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>35.161709999999999</v>
@@ -1093,7 +1112,7 @@
       <c r="N10">
         <v>-119</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="5">
         <v>20564173</v>
       </c>
       <c r="P10">
@@ -1105,18 +1124,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1141,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
@@ -1150,10 +1173,10 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
@@ -1171,10 +1194,445 @@
         <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35.11983</v>
+      </c>
+      <c r="C2">
+        <v>-119.62824999999999</v>
+      </c>
+      <c r="D2">
+        <v>210</v>
+      </c>
+      <c r="E2">
+        <v>167</v>
+      </c>
+      <c r="F2">
+        <v>134</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I2">
+        <v>20619210</v>
+      </c>
+      <c r="J2">
+        <v>20535201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>15.2</v>
+      </c>
+      <c r="M2">
+        <v>35.119880000000002</v>
+      </c>
+      <c r="N2">
+        <v>-119.6283</v>
+      </c>
+      <c r="O2">
+        <v>20564077</v>
+      </c>
+      <c r="P2">
+        <v>20619200</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43606</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35.119840000000003</v>
+      </c>
+      <c r="C3">
+        <v>-119.62866</v>
+      </c>
+      <c r="D3">
+        <v>334</v>
+      </c>
+      <c r="E3">
+        <v>263</v>
+      </c>
+      <c r="F3">
+        <v>131</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>12.5</v>
+      </c>
+      <c r="I3">
+        <v>20619218</v>
+      </c>
+      <c r="J3">
+        <v>2058911</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>35.119860000000003</v>
+      </c>
+      <c r="N3">
+        <v>-119.62860999999999</v>
+      </c>
+      <c r="O3">
+        <v>20619217</v>
+      </c>
+      <c r="P3">
+        <v>20619216</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="C4">
+        <v>-119.6283</v>
+      </c>
+      <c r="D4">
+        <v>321</v>
+      </c>
+      <c r="E4">
+        <v>241</v>
+      </c>
+      <c r="F4">
+        <v>138</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I4">
+        <v>20619202</v>
+      </c>
+      <c r="J4">
+        <v>20500307</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>15.5</v>
+      </c>
+      <c r="M4">
+        <v>35.119959999999999</v>
+      </c>
+      <c r="N4">
+        <v>-119.62833999999999</v>
+      </c>
+      <c r="O4">
+        <v>20619224</v>
+      </c>
+      <c r="P4">
+        <v>20535200</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.119970000000002</v>
+      </c>
+      <c r="C5">
+        <v>-119.62823</v>
+      </c>
+      <c r="D5">
+        <v>278</v>
+      </c>
+      <c r="E5">
+        <v>245</v>
+      </c>
+      <c r="F5">
+        <v>137</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>11.4</v>
+      </c>
+      <c r="I5">
+        <v>20619198</v>
+      </c>
+      <c r="J5">
+        <v>20500302</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>35.119289999999999</v>
+      </c>
+      <c r="N5">
+        <v>-119.62829000000001</v>
+      </c>
+      <c r="O5">
+        <v>20619208</v>
+      </c>
+      <c r="P5">
+        <v>20567066</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>35.118830000000003</v>
+      </c>
+      <c r="C6">
+        <v>-119.62192</v>
+      </c>
+      <c r="D6">
+        <v>286</v>
+      </c>
+      <c r="E6">
+        <v>265</v>
+      </c>
+      <c r="F6">
+        <v>151</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>15.5</v>
+      </c>
+      <c r="I6">
+        <v>20619205</v>
+      </c>
+      <c r="J6">
+        <v>20619204</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>12.8</v>
+      </c>
+      <c r="M6">
+        <v>35.118859999999998</v>
+      </c>
+      <c r="N6">
+        <v>-119.62914000000001</v>
+      </c>
+      <c r="O6">
+        <v>20567069</v>
+      </c>
+      <c r="P6">
+        <v>20567068</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>35.161799999999999</v>
+      </c>
+      <c r="C7">
+        <v>-119.67192</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>11.6</v>
+      </c>
+      <c r="I7">
+        <v>20548641</v>
+      </c>
+      <c r="J7">
+        <v>20619212</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>13.4</v>
+      </c>
+      <c r="M7">
+        <v>35.161769999999997</v>
+      </c>
+      <c r="N7">
+        <v>-119.67197</v>
+      </c>
+      <c r="O7">
+        <v>20619201</v>
+      </c>
+      <c r="P7">
+        <v>20619221</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
+      <c r="B8">
+        <v>35.16169</v>
+      </c>
+      <c r="C8">
+        <v>-119.67184</v>
+      </c>
+      <c r="D8">
+        <v>212</v>
+      </c>
+      <c r="E8">
+        <v>189</v>
+      </c>
+      <c r="F8">
+        <v>107</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>12.4</v>
+      </c>
+      <c r="I8">
+        <v>20535242</v>
+      </c>
+      <c r="J8">
+        <v>20535241</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>35.161720000000003</v>
+      </c>
+      <c r="N8">
+        <v>-119.67183</v>
+      </c>
+      <c r="O8">
+        <v>20500324</v>
+      </c>
+      <c r="P8">
+        <v>20535195</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>-119</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>35.1633</v>
+      </c>
+      <c r="C10">
+        <v>-119.64239999999999</v>
+      </c>
+      <c r="D10">
+        <v>335</v>
+      </c>
+      <c r="E10">
+        <v>248</v>
+      </c>
+      <c r="F10">
+        <v>113</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5.8</v>
+      </c>
+      <c r="I10">
+        <v>20619206</v>
+      </c>
+      <c r="J10">
+        <v>20597546</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>35.163229999999999</v>
+      </c>
+      <c r="N10">
+        <v>-119.67419</v>
+      </c>
+      <c r="O10">
+        <v>10715207</v>
+      </c>
+      <c r="P10">
+        <v>20567067</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1183,6 +1641,807 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35.119799999999998</v>
+      </c>
+      <c r="C2">
+        <v>-119.6284</v>
+      </c>
+      <c r="D2">
+        <v>310</v>
+      </c>
+      <c r="E2">
+        <v>260</v>
+      </c>
+      <c r="F2">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>6.5</v>
+      </c>
+      <c r="I2">
+        <v>20619210</v>
+      </c>
+      <c r="J2">
+        <v>20535201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>5.5</v>
+      </c>
+      <c r="M2">
+        <v>35.119750000000003</v>
+      </c>
+      <c r="N2">
+        <v>-119.08499999999999</v>
+      </c>
+      <c r="O2">
+        <v>20564077</v>
+      </c>
+      <c r="P2">
+        <v>20619200</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43610</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35.119979999999998</v>
+      </c>
+      <c r="C3">
+        <v>-119.56282400000001</v>
+      </c>
+      <c r="D3">
+        <v>243</v>
+      </c>
+      <c r="E3">
+        <v>210</v>
+      </c>
+      <c r="F3">
+        <v>142</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>20619218</v>
+      </c>
+      <c r="J3">
+        <v>2058911</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M3">
+        <v>35.119990000000001</v>
+      </c>
+      <c r="N3">
+        <v>-119.08199999999999</v>
+      </c>
+      <c r="O3">
+        <v>20619217</v>
+      </c>
+      <c r="P3">
+        <v>20619216</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35.112011000000003</v>
+      </c>
+      <c r="C4">
+        <v>-119.6283</v>
+      </c>
+      <c r="D4">
+        <v>290</v>
+      </c>
+      <c r="E4">
+        <v>260</v>
+      </c>
+      <c r="F4">
+        <v>154</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>20619202</v>
+      </c>
+      <c r="J4">
+        <v>20500307</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>12.9</v>
+      </c>
+      <c r="M4">
+        <v>35.120069999999998</v>
+      </c>
+      <c r="N4">
+        <v>-119.62833000000001</v>
+      </c>
+      <c r="O4">
+        <v>20619224</v>
+      </c>
+      <c r="P4">
+        <v>20535200</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.119390000000003</v>
+      </c>
+      <c r="C5">
+        <v>-119.628</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>10.8</v>
+      </c>
+      <c r="I5">
+        <v>20619198</v>
+      </c>
+      <c r="J5">
+        <v>20500302</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>7.2</v>
+      </c>
+      <c r="M5">
+        <v>35.11938</v>
+      </c>
+      <c r="N5">
+        <v>-119.62833000000001</v>
+      </c>
+      <c r="O5">
+        <v>20619208</v>
+      </c>
+      <c r="P5">
+        <v>20567066</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>35.118710999999998</v>
+      </c>
+      <c r="C6">
+        <v>-119.62929</v>
+      </c>
+      <c r="D6">
+        <v>370</v>
+      </c>
+      <c r="E6">
+        <v>320</v>
+      </c>
+      <c r="F6">
+        <v>156</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5.4</v>
+      </c>
+      <c r="I6">
+        <v>20619205</v>
+      </c>
+      <c r="J6">
+        <v>20619204</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>15.5</v>
+      </c>
+      <c r="M6">
+        <v>35.118729999999999</v>
+      </c>
+      <c r="N6">
+        <v>-119.96293</v>
+      </c>
+      <c r="O6">
+        <v>20567069</v>
+      </c>
+      <c r="P6">
+        <v>20567068</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36.695340000000002</v>
+      </c>
+      <c r="C2">
+        <v>-120.79703000000001</v>
+      </c>
+      <c r="D2">
+        <v>510</v>
+      </c>
+      <c r="E2">
+        <v>420</v>
+      </c>
+      <c r="F2">
+        <v>191</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>19.2</v>
+      </c>
+      <c r="I2">
+        <v>1174238</v>
+      </c>
+      <c r="J2">
+        <v>20567072</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>35.9</v>
+      </c>
+      <c r="M2">
+        <v>36.69529</v>
+      </c>
+      <c r="N2">
+        <v>-120.79697</v>
+      </c>
+      <c r="O2">
+        <v>1174238</v>
+      </c>
+      <c r="P2">
+        <v>20567072</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43605</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>36.695320000000002</v>
+      </c>
+      <c r="C3">
+        <v>-120.79715</v>
+      </c>
+      <c r="D3">
+        <v>170</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <v>95</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>21.6</v>
+      </c>
+      <c r="I3">
+        <v>117423</v>
+      </c>
+      <c r="J3">
+        <v>10715208</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>28.8</v>
+      </c>
+      <c r="M3">
+        <v>36.695329999999998</v>
+      </c>
+      <c r="N3">
+        <v>-120.79709</v>
+      </c>
+      <c r="O3">
+        <v>117423</v>
+      </c>
+      <c r="P3">
+        <v>10715208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>36.695340000000002</v>
+      </c>
+      <c r="C4">
+        <v>-120.79722</v>
+      </c>
+      <c r="D4">
+        <v>420</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4">
+        <v>144</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>19.8</v>
+      </c>
+      <c r="I4">
+        <v>1174241</v>
+      </c>
+      <c r="J4">
+        <v>10715219</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>15.2</v>
+      </c>
+      <c r="M4">
+        <v>36.69529</v>
+      </c>
+      <c r="N4">
+        <v>-120.7923</v>
+      </c>
+      <c r="O4">
+        <v>1174241</v>
+      </c>
+      <c r="P4">
+        <v>10715219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36.696060000000003</v>
+      </c>
+      <c r="C5">
+        <v>-120.79667000000001</v>
+      </c>
+      <c r="D5">
+        <v>245</v>
+      </c>
+      <c r="E5">
+        <v>240</v>
+      </c>
+      <c r="F5">
+        <v>127</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>21.4</v>
+      </c>
+      <c r="I5">
+        <v>1161340</v>
+      </c>
+      <c r="J5">
+        <v>10715206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>25.6</v>
+      </c>
+      <c r="M5">
+        <v>36.695959999999999</v>
+      </c>
+      <c r="N5">
+        <v>-120.79658999999999</v>
+      </c>
+      <c r="O5">
+        <v>1161340</v>
+      </c>
+      <c r="P5">
+        <v>10715206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="C6">
+        <v>-120.79674</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>17.2</v>
+      </c>
+      <c r="I6">
+        <v>1156633</v>
+      </c>
+      <c r="J6">
+        <v>20619203</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>26.6</v>
+      </c>
+      <c r="M6">
+        <v>36.695869999999999</v>
+      </c>
+      <c r="N6">
+        <v>-120.79674</v>
+      </c>
+      <c r="O6">
+        <v>1156633</v>
+      </c>
+      <c r="P6">
+        <v>20619203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>36.695959999999999</v>
+      </c>
+      <c r="C7">
+        <v>-120.79676000000001</v>
+      </c>
+      <c r="D7">
+        <v>606</v>
+      </c>
+      <c r="E7">
+        <v>466</v>
+      </c>
+      <c r="F7">
+        <v>228</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>21.8</v>
+      </c>
+      <c r="I7">
+        <v>10715220</v>
+      </c>
+      <c r="J7">
+        <v>10715216</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>23.8</v>
+      </c>
+      <c r="M7">
+        <v>36.696010000000001</v>
+      </c>
+      <c r="N7">
+        <v>-120.79673</v>
+      </c>
+      <c r="O7">
+        <v>10715220</v>
+      </c>
+      <c r="P7">
+        <v>10715216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>36.695889999999999</v>
+      </c>
+      <c r="C8">
+        <v>-120.79803</v>
+      </c>
+      <c r="D8">
+        <v>356</v>
+      </c>
+      <c r="E8">
+        <v>295</v>
+      </c>
+      <c r="F8">
+        <v>186</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I8">
+        <v>10715214</v>
+      </c>
+      <c r="J8">
+        <v>20597549</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>31.6</v>
+      </c>
+      <c r="M8">
+        <v>36.695900000000002</v>
+      </c>
+      <c r="N8">
+        <v>-120.79808</v>
+      </c>
+      <c r="O8">
+        <v>10715214</v>
+      </c>
+      <c r="P8">
+        <v>20597549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -1351,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -1392,16 +2651,16 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1415,7 +2674,7 @@
         <v>-120.79318000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4">
         <v>0.15</v>
@@ -1436,7 +2695,7 @@
         <v>43605</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1450,7 +2709,7 @@
         <v>-120.79331000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4">
         <v>0.15</v>
@@ -1479,7 +2738,7 @@
         <v>-120.79315</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4">
         <v>0.9</v>
@@ -1508,7 +2767,7 @@
         <v>-120.7932</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4">
         <v>0.9</v>
@@ -1537,7 +2796,7 @@
         <v>-120.79311</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4">
         <v>0.5</v>
@@ -1566,7 +2825,7 @@
         <v>-120.79311</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4">
         <v>0.5</v>
@@ -1595,7 +2854,7 @@
         <v>-120.79300000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4">
         <v>0.15</v>
@@ -1624,7 +2883,7 @@
         <v>-120.79292</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4">
         <v>0.15</v>
@@ -1653,7 +2912,7 @@
         <v>-120.79282000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4">
         <v>0.9</v>
@@ -1682,7 +2941,7 @@
         <v>-120.79295</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>0.9</v>
@@ -1711,7 +2970,7 @@
         <v>-120.79304999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4">
         <v>0.5</v>
@@ -1740,7 +2999,7 @@
         <v>-120.9301</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4">
         <v>0.5</v>

--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
     <sheet name="cams-CarrizoWeek2" sheetId="5" r:id="rId2"/>
     <sheet name="cams-CarizoWeek3" sheetId="6" r:id="rId3"/>
     <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId4"/>
-    <sheet name="transect" sheetId="2" r:id="rId5"/>
-    <sheet name="shelters" sheetId="3" r:id="rId6"/>
+    <sheet name="cams-PenocheWeek2" sheetId="7" r:id="rId5"/>
+    <sheet name="transect" sheetId="2" r:id="rId6"/>
+    <sheet name="shelters" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="60">
   <si>
     <t>1S</t>
   </si>
@@ -196,6 +197,9 @@
   </si>
   <si>
     <t>20119-05-23</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -559,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1137,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J6"/>
+      <selection activeCell="O2" sqref="O2:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,10 +1577,49 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>35.162239999999997</v>
       </c>
       <c r="C9">
-        <v>-119</v>
+        <v>-119.6728</v>
+      </c>
+      <c r="D9">
+        <v>285</v>
+      </c>
+      <c r="E9">
+        <v>280</v>
+      </c>
+      <c r="F9">
+        <v>142</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>11.3</v>
+      </c>
+      <c r="I9">
+        <v>20567065</v>
+      </c>
+      <c r="J9">
+        <v>20619220</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>15.5</v>
+      </c>
+      <c r="M9">
+        <v>35.162289999999999</v>
+      </c>
+      <c r="N9">
+        <v>-119.67230000000001</v>
+      </c>
+      <c r="O9">
+        <v>20535247</v>
+      </c>
+      <c r="P9">
+        <v>20619225</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1644,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,32 +2018,212 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>35.161819999999999</v>
+      </c>
+      <c r="C7">
+        <v>-119.67212000000001</v>
+      </c>
+      <c r="D7">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>230</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>20548641</v>
+      </c>
+      <c r="J7">
+        <v>20619212</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
+      </c>
+      <c r="L7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M7">
+        <v>35.161810000000003</v>
+      </c>
+      <c r="N7">
+        <v>-119.67212000000001</v>
+      </c>
+      <c r="O7">
+        <v>20619201</v>
+      </c>
+      <c r="P7">
+        <v>20619221</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
+      <c r="B8">
+        <v>35.161679999999997</v>
+      </c>
+      <c r="C8">
+        <v>-119.67171</v>
+      </c>
+      <c r="D8">
+        <v>305</v>
+      </c>
+      <c r="E8">
+        <v>247</v>
+      </c>
+      <c r="F8">
+        <v>128</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>14.6</v>
+      </c>
+      <c r="I8">
+        <v>20535242</v>
+      </c>
+      <c r="J8">
+        <v>20535241</v>
+      </c>
       <c r="K8" t="s">
         <v>13</v>
+      </c>
+      <c r="L8">
+        <v>14.4</v>
+      </c>
+      <c r="M8">
+        <v>35.161709999999999</v>
+      </c>
+      <c r="N8">
+        <v>-119.67174</v>
+      </c>
+      <c r="O8">
+        <v>20500324</v>
+      </c>
+      <c r="P8">
+        <v>20535195</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9">
+        <v>35.162269999999999</v>
+      </c>
+      <c r="C9">
+        <v>-119.67310000000001</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>372</v>
+      </c>
+      <c r="F9">
+        <v>167</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>6.2</v>
+      </c>
+      <c r="I9">
+        <v>20567065</v>
+      </c>
+      <c r="J9">
+        <v>20619220</v>
+      </c>
       <c r="K9" t="s">
         <v>14</v>
+      </c>
+      <c r="L9">
+        <v>6.9</v>
+      </c>
+      <c r="M9">
+        <v>35.162289999999999</v>
+      </c>
+      <c r="N9">
+        <v>-119.63039999999999</v>
+      </c>
+      <c r="O9">
+        <v>20535247</v>
+      </c>
+      <c r="P9">
+        <v>20619225</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
+      <c r="B10">
+        <v>35.16337</v>
+      </c>
+      <c r="C10">
+        <v>-119.6743</v>
+      </c>
+      <c r="D10">
+        <v>225</v>
+      </c>
+      <c r="E10">
+        <v>210</v>
+      </c>
+      <c r="F10">
+        <v>108</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>6.4</v>
+      </c>
+      <c r="I10">
+        <v>20619206</v>
+      </c>
+      <c r="J10">
+        <v>20597546</v>
+      </c>
       <c r="K10" t="s">
         <v>26</v>
+      </c>
+      <c r="L10">
+        <v>13.2</v>
+      </c>
+      <c r="M10">
+        <v>35.103389999999997</v>
+      </c>
+      <c r="N10">
+        <v>-119.67427000000001</v>
+      </c>
+      <c r="O10">
+        <v>10715207</v>
+      </c>
+      <c r="P10">
+        <v>20567067</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2236,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="O2" sqref="O2:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2305,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>36.695340000000002</v>
@@ -2442,6 +2665,404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36.695320000000002</v>
+      </c>
+      <c r="C2">
+        <v>-120.79684</v>
+      </c>
+      <c r="D2">
+        <v>370</v>
+      </c>
+      <c r="E2">
+        <v>260</v>
+      </c>
+      <c r="F2">
+        <v>129</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I2">
+        <v>1174238</v>
+      </c>
+      <c r="J2">
+        <v>20567072</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>36.695300000000003</v>
+      </c>
+      <c r="N2">
+        <v>-120.79685000000001</v>
+      </c>
+      <c r="O2">
+        <v>1174238</v>
+      </c>
+      <c r="P2">
+        <v>20567072</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>36.695920000000001</v>
+      </c>
+      <c r="C3">
+        <v>-120.797</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
+        <v>220</v>
+      </c>
+      <c r="F3">
+        <v>119</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6.6</v>
+      </c>
+      <c r="I3">
+        <v>117423</v>
+      </c>
+      <c r="J3">
+        <v>10715208</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>9.9</v>
+      </c>
+      <c r="M3">
+        <v>36.69538</v>
+      </c>
+      <c r="N3">
+        <v>-120.7903</v>
+      </c>
+      <c r="O3">
+        <v>117423</v>
+      </c>
+      <c r="P3">
+        <v>10715208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>36.695329999999998</v>
+      </c>
+      <c r="C4">
+        <v>-120.7936</v>
+      </c>
+      <c r="D4">
+        <v>404</v>
+      </c>
+      <c r="E4">
+        <v>395</v>
+      </c>
+      <c r="F4">
+        <v>145</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1174241</v>
+      </c>
+      <c r="J4">
+        <v>10715219</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>13.4</v>
+      </c>
+      <c r="M4">
+        <v>36.695360000000001</v>
+      </c>
+      <c r="N4">
+        <v>-120.79734999999999</v>
+      </c>
+      <c r="O4">
+        <v>1174241</v>
+      </c>
+      <c r="P4">
+        <v>10715219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36.695979999999999</v>
+      </c>
+      <c r="C5">
+        <v>-120.79662</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4.8</v>
+      </c>
+      <c r="I5">
+        <v>1161340</v>
+      </c>
+      <c r="J5">
+        <v>10715206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>36.695950000000003</v>
+      </c>
+      <c r="N5">
+        <v>-120.79656</v>
+      </c>
+      <c r="O5">
+        <v>1161340</v>
+      </c>
+      <c r="P5">
+        <v>10715206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>36.695909999999998</v>
+      </c>
+      <c r="C6">
+        <v>-120.79653999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1156633</v>
+      </c>
+      <c r="J6">
+        <v>20619203</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>14.8</v>
+      </c>
+      <c r="M6">
+        <v>36.695869999999999</v>
+      </c>
+      <c r="N6">
+        <v>-120.79655</v>
+      </c>
+      <c r="O6">
+        <v>1156633</v>
+      </c>
+      <c r="P6">
+        <v>20619203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>36.69605</v>
+      </c>
+      <c r="C7">
+        <v>-120.79667999999999</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4.5</v>
+      </c>
+      <c r="I7">
+        <v>10715220</v>
+      </c>
+      <c r="J7">
+        <v>10715216</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M7">
+        <v>36.696010000000001</v>
+      </c>
+      <c r="N7">
+        <v>-120.79669</v>
+      </c>
+      <c r="O7">
+        <v>10715220</v>
+      </c>
+      <c r="P7">
+        <v>10715216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>36.695950000000003</v>
+      </c>
+      <c r="C8">
+        <v>-120.79815000000001</v>
+      </c>
+      <c r="D8">
+        <v>277</v>
+      </c>
+      <c r="E8">
+        <v>260</v>
+      </c>
+      <c r="F8">
+        <v>127</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I8">
+        <v>10715214</v>
+      </c>
+      <c r="J8">
+        <v>20597549</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>26.2</v>
+      </c>
+      <c r="M8">
+        <v>36.695929999999997</v>
+      </c>
+      <c r="N8">
+        <v>-120.79819000000001</v>
+      </c>
+      <c r="O8">
+        <v>10715214</v>
+      </c>
+      <c r="P8">
+        <v>20597549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -2610,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>

--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
     <sheet name="cams-CarrizoWeek2" sheetId="5" r:id="rId2"/>
     <sheet name="cams-CarizoWeek3" sheetId="6" r:id="rId3"/>
-    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId4"/>
-    <sheet name="cams-PenocheWeek2" sheetId="7" r:id="rId5"/>
-    <sheet name="transect" sheetId="2" r:id="rId6"/>
-    <sheet name="shelters" sheetId="3" r:id="rId7"/>
+    <sheet name="cams-CarrizoWeek4" sheetId="8" r:id="rId4"/>
+    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId5"/>
+    <sheet name="cams-PenocheWeek2" sheetId="7" r:id="rId6"/>
+    <sheet name="transect" sheetId="2" r:id="rId7"/>
+    <sheet name="shelters" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="60">
   <si>
     <t>1S</t>
   </si>
@@ -1688,7 +1689,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,6 +1928,15 @@
       <c r="C5">
         <v>-119.628</v>
       </c>
+      <c r="D5">
+        <v>373</v>
+      </c>
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>131</v>
+      </c>
       <c r="G5">
         <v>2</v>
       </c>
@@ -2232,6 +2242,323 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35.119860000000003</v>
+      </c>
+      <c r="C2">
+        <v>-119.62805</v>
+      </c>
+      <c r="D2">
+        <v>348</v>
+      </c>
+      <c r="E2">
+        <v>327</v>
+      </c>
+      <c r="F2">
+        <v>136</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
+        <v>35.11985</v>
+      </c>
+      <c r="N2">
+        <v>-119.6281</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43614</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35.119599999999998</v>
+      </c>
+      <c r="C3">
+        <v>-119.62858</v>
+      </c>
+      <c r="D3">
+        <v>147</v>
+      </c>
+      <c r="E3">
+        <v>140</v>
+      </c>
+      <c r="F3">
+        <v>95</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>11.8</v>
+      </c>
+      <c r="M3">
+        <v>35.11965</v>
+      </c>
+      <c r="N3">
+        <v>-119.62889</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35.120310000000003</v>
+      </c>
+      <c r="C4">
+        <v>-119.62827</v>
+      </c>
+      <c r="D4">
+        <v>328</v>
+      </c>
+      <c r="E4">
+        <v>280</v>
+      </c>
+      <c r="F4">
+        <v>142</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>5.4</v>
+      </c>
+      <c r="M4">
+        <v>35.120280000000001</v>
+      </c>
+      <c r="N4">
+        <v>-119.62828</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.11938</v>
+      </c>
+      <c r="C5">
+        <v>-119.62822</v>
+      </c>
+      <c r="D5">
+        <v>190</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>94</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5.8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10.4</v>
+      </c>
+      <c r="M5">
+        <v>35.119419999999998</v>
+      </c>
+      <c r="N5">
+        <v>-119.62822</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>35.118609999999997</v>
+      </c>
+      <c r="C6">
+        <v>-119.62911</v>
+      </c>
+      <c r="D6">
+        <v>285</v>
+      </c>
+      <c r="E6">
+        <v>243</v>
+      </c>
+      <c r="F6">
+        <v>124</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6.4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>4.2</v>
+      </c>
+      <c r="M6">
+        <v>35.11862</v>
+      </c>
+      <c r="N6">
+        <v>-119.62916</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -2664,11 +2991,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3062,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -3231,7 +3558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>

--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
     <sheet name="cams-CarrizoWeek2" sheetId="5" r:id="rId2"/>
     <sheet name="cams-CarizoWeek3" sheetId="6" r:id="rId3"/>
     <sheet name="cams-CarrizoWeek4" sheetId="8" r:id="rId4"/>
-    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId5"/>
-    <sheet name="cams-PenocheWeek2" sheetId="7" r:id="rId6"/>
-    <sheet name="transect" sheetId="2" r:id="rId7"/>
-    <sheet name="shelters" sheetId="3" r:id="rId8"/>
+    <sheet name="cams-CarrizoWeek5" sheetId="9" r:id="rId5"/>
+    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId6"/>
+    <sheet name="cams-PenocheWeek2" sheetId="7" r:id="rId7"/>
+    <sheet name="transect" sheetId="2" r:id="rId8"/>
+    <sheet name="shelters" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="60">
   <si>
     <t>1S</t>
   </si>
@@ -2245,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,32 +2526,167 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>35.161949999999997</v>
+      </c>
+      <c r="C7">
+        <v>-119.64215</v>
+      </c>
+      <c r="D7">
+        <v>404</v>
+      </c>
+      <c r="E7">
+        <v>291</v>
+      </c>
+      <c r="F7">
+        <v>148</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>35.161960000000001</v>
+      </c>
+      <c r="N7">
+        <v>-119.64218</v>
+      </c>
+      <c r="R7" s="2">
+        <v>43618</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
+      <c r="B8">
+        <v>35.161729999999999</v>
+      </c>
+      <c r="C8">
+        <v>-119.67167999999999</v>
+      </c>
+      <c r="D8">
+        <v>269</v>
+      </c>
+      <c r="E8">
+        <v>193</v>
+      </c>
+      <c r="F8">
+        <v>116</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>5.4</v>
+      </c>
       <c r="K8" t="s">
         <v>13</v>
+      </c>
+      <c r="L8">
+        <v>6.9</v>
+      </c>
+      <c r="M8">
+        <v>35.161740000000002</v>
+      </c>
+      <c r="N8">
+        <v>-119.61709999999999</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9">
+        <v>35.162149999999997</v>
+      </c>
+      <c r="C9">
+        <v>-119.67316</v>
+      </c>
+      <c r="D9">
+        <v>687</v>
+      </c>
+      <c r="E9">
+        <v>291</v>
+      </c>
+      <c r="F9">
+        <v>153</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>6.2</v>
+      </c>
       <c r="K9" t="s">
         <v>14</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>35.162170000000003</v>
+      </c>
+      <c r="N9">
+        <v>-119.69313</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
+      <c r="B10">
+        <v>35.163220000000003</v>
+      </c>
+      <c r="C10">
+        <v>-119.67428</v>
+      </c>
+      <c r="D10">
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <v>206</v>
+      </c>
+      <c r="F10">
+        <v>118</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.9</v>
+      </c>
       <c r="K10" t="s">
         <v>26</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>35.163209999999999</v>
+      </c>
+      <c r="N10">
+        <v>-119.64319999999999</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2559,6 +2695,323 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35.119929999999997</v>
+      </c>
+      <c r="C2">
+        <v>-119.62804</v>
+      </c>
+      <c r="D2">
+        <v>219</v>
+      </c>
+      <c r="E2">
+        <v>214</v>
+      </c>
+      <c r="F2">
+        <v>117</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>14.8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M2">
+        <v>35.119979999999998</v>
+      </c>
+      <c r="N2">
+        <v>-119.62803</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43618</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35.161956000000004</v>
+      </c>
+      <c r="C3">
+        <v>-119.62882</v>
+      </c>
+      <c r="D3">
+        <v>192</v>
+      </c>
+      <c r="E3">
+        <v>147</v>
+      </c>
+      <c r="F3">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>22.6</v>
+      </c>
+      <c r="M3">
+        <v>35.119610000000002</v>
+      </c>
+      <c r="N3">
+        <v>-119.62879</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35.12039</v>
+      </c>
+      <c r="C4">
+        <v>-119.62833999999999</v>
+      </c>
+      <c r="D4">
+        <v>192</v>
+      </c>
+      <c r="E4">
+        <v>149</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>6.6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>12.8</v>
+      </c>
+      <c r="M4">
+        <v>35.12041</v>
+      </c>
+      <c r="N4">
+        <v>-119.62831</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.119509999999998</v>
+      </c>
+      <c r="C5">
+        <v>-119.62815000000001</v>
+      </c>
+      <c r="D5">
+        <v>302</v>
+      </c>
+      <c r="E5">
+        <v>230</v>
+      </c>
+      <c r="F5">
+        <v>133</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>12.4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>20.8</v>
+      </c>
+      <c r="M5">
+        <v>35.119509999999998</v>
+      </c>
+      <c r="N5">
+        <v>-119.62819</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>35.118679999999998</v>
+      </c>
+      <c r="C6">
+        <v>-119.62942</v>
+      </c>
+      <c r="D6">
+        <v>387</v>
+      </c>
+      <c r="E6">
+        <v>237</v>
+      </c>
+      <c r="F6">
+        <v>124</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>35.118679999999998</v>
+      </c>
+      <c r="N6">
+        <v>-119.62936999999999</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -2991,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3389,7 +3842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -3558,7 +4011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>

--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,18 @@
     <sheet name="cams-CarizoWeek3" sheetId="6" r:id="rId3"/>
     <sheet name="cams-CarrizoWeek4" sheetId="8" r:id="rId4"/>
     <sheet name="cams-CarrizoWeek5" sheetId="9" r:id="rId5"/>
-    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId6"/>
-    <sheet name="cams-PenocheWeek2" sheetId="7" r:id="rId7"/>
-    <sheet name="transect" sheetId="2" r:id="rId8"/>
-    <sheet name="shelters" sheetId="3" r:id="rId9"/>
+    <sheet name="cams-CarrizoWeek6" sheetId="10" r:id="rId6"/>
+    <sheet name="cams-PenocheWeek1" sheetId="4" r:id="rId7"/>
+    <sheet name="cams-PenocheWeek2" sheetId="7" r:id="rId8"/>
+    <sheet name="transect" sheetId="2" r:id="rId9"/>
+    <sheet name="shelters" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="60">
   <si>
     <t>1S</t>
   </si>
@@ -1134,6 +1135,418 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36.693629999999999</v>
+      </c>
+      <c r="C2">
+        <v>-120.79318000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>20578912</v>
+      </c>
+      <c r="G2">
+        <v>1156629</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>29.4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43605</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>36.693640000000002</v>
+      </c>
+      <c r="C3">
+        <v>-120.79331000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F3">
+        <v>20567073</v>
+      </c>
+      <c r="G3">
+        <v>10715217</v>
+      </c>
+      <c r="H3">
+        <v>31.8</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>36.693550000000002</v>
+      </c>
+      <c r="C4">
+        <v>-120.79315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>20597545</v>
+      </c>
+      <c r="G4">
+        <v>20535198</v>
+      </c>
+      <c r="H4">
+        <v>26.7</v>
+      </c>
+      <c r="I4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>36.693489999999997</v>
+      </c>
+      <c r="C5">
+        <v>-120.7932</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>20471784</v>
+      </c>
+      <c r="G5">
+        <v>20597548</v>
+      </c>
+      <c r="H5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I5">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>36.693489999999997</v>
+      </c>
+      <c r="C6">
+        <v>-120.79311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>20619223</v>
+      </c>
+      <c r="G6">
+        <v>1071522</v>
+      </c>
+      <c r="H6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I6">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36.393419999999999</v>
+      </c>
+      <c r="C7">
+        <v>-120.79311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>1174235</v>
+      </c>
+      <c r="G7">
+        <v>1071524</v>
+      </c>
+      <c r="H7">
+        <v>28.8</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>36.693939999999998</v>
+      </c>
+      <c r="C8">
+        <v>-120.79300000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F8">
+        <v>20619222</v>
+      </c>
+      <c r="G8">
+        <v>10795215</v>
+      </c>
+      <c r="H8">
+        <v>23.9</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>36.69397</v>
+      </c>
+      <c r="C9">
+        <v>-120.79292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>205677071</v>
+      </c>
+      <c r="G9">
+        <v>20619214</v>
+      </c>
+      <c r="H9">
+        <v>23.8</v>
+      </c>
+      <c r="I9">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>36.694009999999999</v>
+      </c>
+      <c r="C10">
+        <v>-120.79282000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>20567074</v>
+      </c>
+      <c r="G10">
+        <v>1156637</v>
+      </c>
+      <c r="H10">
+        <v>29.4</v>
+      </c>
+      <c r="I10">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>36.694000000000003</v>
+      </c>
+      <c r="C11">
+        <v>-120.79295</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>20619211</v>
+      </c>
+      <c r="G11">
+        <v>20619207</v>
+      </c>
+      <c r="H11">
+        <v>31.4</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>36.694049999999997</v>
+      </c>
+      <c r="C12">
+        <v>-120.79304999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>20619213</v>
+      </c>
+      <c r="G12">
+        <v>20619219</v>
+      </c>
+      <c r="H12">
+        <v>27.2</v>
+      </c>
+      <c r="I12">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>36.69408</v>
+      </c>
+      <c r="C13">
+        <v>-120.9301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>2058913</v>
+      </c>
+      <c r="G13">
+        <v>20564078</v>
+      </c>
+      <c r="H13">
+        <v>25.5</v>
+      </c>
+      <c r="I13">
+        <v>31.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
@@ -2698,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,9 +3426,326 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35.120080000000002</v>
+      </c>
+      <c r="C2">
+        <v>-119.62906</v>
+      </c>
+      <c r="D2">
+        <v>338</v>
+      </c>
+      <c r="E2">
+        <v>328</v>
+      </c>
+      <c r="F2">
+        <v>136</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>10.8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>11.5</v>
+      </c>
+      <c r="M2">
+        <v>35.120080000000002</v>
+      </c>
+      <c r="N2">
+        <v>-119.6281</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43622</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35.119500000000002</v>
+      </c>
+      <c r="C3">
+        <v>-119.62898</v>
+      </c>
+      <c r="D3">
+        <v>201</v>
+      </c>
+      <c r="E3">
+        <v>168</v>
+      </c>
+      <c r="F3">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1.8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>1.6</v>
+      </c>
+      <c r="M3">
+        <v>35.119509999999998</v>
+      </c>
+      <c r="N3">
+        <v>-119.62900999999999</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35.120460000000001</v>
+      </c>
+      <c r="C4">
+        <v>-119.62814</v>
+      </c>
+      <c r="D4">
+        <v>320</v>
+      </c>
+      <c r="E4">
+        <v>260</v>
+      </c>
+      <c r="F4">
+        <v>116</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5.6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>3.8</v>
+      </c>
+      <c r="M4">
+        <v>35.120440000000002</v>
+      </c>
+      <c r="N4">
+        <v>-119.62818</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.11833</v>
+      </c>
+      <c r="C5">
+        <v>-119.62952</v>
+      </c>
+      <c r="D5">
+        <v>360</v>
+      </c>
+      <c r="E5">
+        <v>290</v>
+      </c>
+      <c r="F5">
+        <v>143</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>6.3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>35.183599999999998</v>
+      </c>
+      <c r="N5">
+        <v>-119.62948</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>35.119680000000002</v>
+      </c>
+      <c r="C6">
+        <v>-119.62824999999999</v>
+      </c>
+      <c r="D6">
+        <v>364</v>
+      </c>
+      <c r="E6">
+        <v>257</v>
+      </c>
+      <c r="F6">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>6.2</v>
+      </c>
+      <c r="M6">
+        <v>35.119669999999999</v>
+      </c>
+      <c r="N6">
+        <v>-119.62822</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P8"/>
     </sheetView>
   </sheetViews>
@@ -3444,7 +4174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3842,7 +4572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -4009,416 +4739,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>36.693629999999999</v>
-      </c>
-      <c r="C2">
-        <v>-120.79318000000001</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F2">
-        <v>20578912</v>
-      </c>
-      <c r="G2">
-        <v>1156629</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>29.4</v>
-      </c>
-      <c r="M2" s="2">
-        <v>43605</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>36.693640000000002</v>
-      </c>
-      <c r="C3">
-        <v>-120.79331000000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F3">
-        <v>20567073</v>
-      </c>
-      <c r="G3">
-        <v>10715217</v>
-      </c>
-      <c r="H3">
-        <v>31.8</v>
-      </c>
-      <c r="I3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>36.693550000000002</v>
-      </c>
-      <c r="C4">
-        <v>-120.79315</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F4">
-        <v>20597545</v>
-      </c>
-      <c r="G4">
-        <v>20535198</v>
-      </c>
-      <c r="H4">
-        <v>26.7</v>
-      </c>
-      <c r="I4">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>36.693489999999997</v>
-      </c>
-      <c r="C5">
-        <v>-120.7932</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F5">
-        <v>20471784</v>
-      </c>
-      <c r="G5">
-        <v>20597548</v>
-      </c>
-      <c r="H5">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I5">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>36.693489999999997</v>
-      </c>
-      <c r="C6">
-        <v>-120.79311</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>20619223</v>
-      </c>
-      <c r="G6">
-        <v>1071522</v>
-      </c>
-      <c r="H6">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I6">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>36.393419999999999</v>
-      </c>
-      <c r="C7">
-        <v>-120.79311</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>1174235</v>
-      </c>
-      <c r="G7">
-        <v>1071524</v>
-      </c>
-      <c r="H7">
-        <v>28.8</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>36.693939999999998</v>
-      </c>
-      <c r="C8">
-        <v>-120.79300000000001</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F8">
-        <v>20619222</v>
-      </c>
-      <c r="G8">
-        <v>10795215</v>
-      </c>
-      <c r="H8">
-        <v>23.9</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>36.69397</v>
-      </c>
-      <c r="C9">
-        <v>-120.79292</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F9">
-        <v>205677071</v>
-      </c>
-      <c r="G9">
-        <v>20619214</v>
-      </c>
-      <c r="H9">
-        <v>23.8</v>
-      </c>
-      <c r="I9">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>36.694009999999999</v>
-      </c>
-      <c r="C10">
-        <v>-120.79282000000001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F10">
-        <v>20567074</v>
-      </c>
-      <c r="G10">
-        <v>1156637</v>
-      </c>
-      <c r="H10">
-        <v>29.4</v>
-      </c>
-      <c r="I10">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>36.694000000000003</v>
-      </c>
-      <c r="C11">
-        <v>-120.79295</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F11">
-        <v>20619211</v>
-      </c>
-      <c r="G11">
-        <v>20619207</v>
-      </c>
-      <c r="H11">
-        <v>31.4</v>
-      </c>
-      <c r="I11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>36.694049999999997</v>
-      </c>
-      <c r="C12">
-        <v>-120.79304999999999</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>20619213</v>
-      </c>
-      <c r="G12">
-        <v>20619219</v>
-      </c>
-      <c r="H12">
-        <v>27.2</v>
-      </c>
-      <c r="I12">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>36.69408</v>
-      </c>
-      <c r="C13">
-        <v>-120.9301</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>2058913</v>
-      </c>
-      <c r="G13">
-        <v>20564078</v>
-      </c>
-      <c r="H13">
-        <v>25.5</v>
-      </c>
-      <c r="I13">
-        <v>31.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
@@ -209,6 +209,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,13 +257,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,18 +577,18 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -640,7 +647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -699,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -752,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -805,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -858,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -911,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -970,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1140,27 +1147,28 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1188,14 +1196,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>36.693629999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>-120.79318000000001</v>
       </c>
       <c r="D2" t="s">
@@ -1223,14 +1231,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>36.693640000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>-120.79331000000001</v>
       </c>
       <c r="D3" t="s">
@@ -1252,14 +1260,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>36.693550000000002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>-120.79315</v>
       </c>
       <c r="D4" t="s">
@@ -1281,14 +1289,14 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>36.693489999999997</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>-120.7932</v>
       </c>
       <c r="D5" t="s">
@@ -1310,14 +1318,14 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>36.693489999999997</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>-120.79311</v>
       </c>
       <c r="D6" t="s">
@@ -1339,14 +1347,14 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>36.393419999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>-120.79311</v>
       </c>
       <c r="D7" t="s">
@@ -1368,14 +1376,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>36.693939999999998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>-120.79300000000001</v>
       </c>
       <c r="D8" t="s">
@@ -1397,14 +1405,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>36.69397</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>-120.79292</v>
       </c>
       <c r="D9" t="s">
@@ -1426,14 +1434,14 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>36.694009999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>-120.79282000000001</v>
       </c>
       <c r="D10" t="s">
@@ -1455,14 +1463,14 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>36.694000000000003</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>-120.79295</v>
       </c>
       <c r="D11" t="s">
@@ -1484,14 +1492,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>36.694049999999997</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>-120.79304999999999</v>
       </c>
       <c r="D12" t="s">
@@ -1513,14 +1521,14 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>36.69408</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>-120.9301</v>
       </c>
       <c r="D13" t="s">
@@ -1544,6 +1552,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1555,12 +1564,12 @@
       <selection activeCell="O2" sqref="O2:P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2106,12 +2115,12 @@
       <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2332,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2597,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2663,12 +2672,12 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2894,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3020,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3061,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3115,12 +3124,12 @@
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -3179,7 +3188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3431,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3472,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3513,7 +3522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3567,12 +3576,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3852,14 +3861,14 @@
       <selection activeCell="O2" sqref="O2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -3916,7 +3925,7 @@
       </c>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3972,7 +3981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>10715208</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>10715219</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>10715206</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4172,7 +4181,7 @@
         <v>20619203</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>10715216</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -4285,12 +4294,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -4347,7 +4356,7 @@
       </c>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4400,7 +4409,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>10715208</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4500,7 +4509,7 @@
         <v>10715219</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4541,7 +4550,7 @@
         <v>10715206</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4579,7 +4588,7 @@
         <v>20619203</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>10715216</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -4683,13 +4692,13 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4709,132 +4718,132 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>

--- a/Gear and datasheets/camtraps.xlsx
+++ b/Gear and datasheets/camtraps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="cams-CarrzioWeek1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="60">
   <si>
     <t>1S</t>
   </si>
@@ -3858,7 +3858,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P8"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4290,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4342,12 +4342,8 @@
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
       <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4399,12 +4395,6 @@
       <c r="N2">
         <v>-120.79685000000001</v>
       </c>
-      <c r="O2">
-        <v>1174238</v>
-      </c>
-      <c r="P2">
-        <v>20567072</v>
-      </c>
       <c r="R2" s="2">
         <v>43612</v>
       </c>
@@ -4452,12 +4442,6 @@
       <c r="N3">
         <v>-120.7903</v>
       </c>
-      <c r="O3">
-        <v>117423</v>
-      </c>
-      <c r="P3">
-        <v>10715208</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -4502,12 +4486,6 @@
       <c r="N4">
         <v>-120.79734999999999</v>
       </c>
-      <c r="O4">
-        <v>1174241</v>
-      </c>
-      <c r="P4">
-        <v>10715219</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -4543,12 +4521,6 @@
       <c r="N5">
         <v>-120.79656</v>
       </c>
-      <c r="O5">
-        <v>1161340</v>
-      </c>
-      <c r="P5">
-        <v>10715206</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -4581,12 +4553,6 @@
       <c r="N6">
         <v>-120.79655</v>
       </c>
-      <c r="O6">
-        <v>1156633</v>
-      </c>
-      <c r="P6">
-        <v>20619203</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -4622,12 +4588,6 @@
       <c r="N7">
         <v>-120.79669</v>
       </c>
-      <c r="O7">
-        <v>10715220</v>
-      </c>
-      <c r="P7">
-        <v>10715216</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -4671,12 +4631,6 @@
       </c>
       <c r="N8">
         <v>-120.79819000000001</v>
-      </c>
-      <c r="O8">
-        <v>10715214</v>
-      </c>
-      <c r="P8">
-        <v>20597549</v>
       </c>
     </row>
   </sheetData>
